--- a/RandomMIDI/rules.xlsx
+++ b/RandomMIDI/rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palti\Desktop\RandomMIDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paltis/Documents/RandomMIDI/RandomMIDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D51F8-844D-4337-B502-93165B43F741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CB219-666B-5F45-ACCF-9E69EB722B09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="-110" windowWidth="18330" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>scale</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,10 +212,6 @@
   </si>
   <si>
     <t>program</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,26 +559,26 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="20.3984375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -590,7 +586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,12 +605,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -622,25 +618,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -663,7 +659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
@@ -709,7 +705,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -732,7 +728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
@@ -758,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -787,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -819,7 +815,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -874,7 +870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -897,7 +893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
@@ -908,7 +904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -922,7 +918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
@@ -939,7 +935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -959,7 +955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
@@ -979,7 +975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1002,20 +998,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
